--- a/prices/products.xlsx
+++ b/prices/products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aljaberi\price_web\prices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aljaberi\cheapest_price_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D15981-FED3-4B49-AA47-65AE862A2187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B398AA5-A011-40BE-87D3-FC68BD6F0D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E3F968EC-AEEF-496B-82F7-818B42840680}"/>
   </bookViews>
@@ -27,6 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
+    <t>المنتج</t>
+  </si>
+  <si>
     <t>السعر العادي</t>
   </si>
   <si>
@@ -220,9 +223,6 @@
   </si>
   <si>
     <t>امازون</t>
-  </si>
-  <si>
-    <t>المنتج</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -589,7 +603,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,31 +617,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>40.25</v>
@@ -640,7 +654,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>72</v>
@@ -653,7 +667,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>41.5</v>
@@ -666,7 +680,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>80</v>
@@ -679,7 +693,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>38</v>
@@ -692,7 +706,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>54</v>
@@ -705,7 +719,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>37.659999999999997</v>
@@ -718,7 +732,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>77</v>
@@ -731,7 +745,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>37</v>
@@ -744,7 +758,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>18.95</v>
@@ -757,7 +771,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>34</v>
@@ -770,7 +784,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>3.25</v>
@@ -783,7 +797,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>14</v>
@@ -796,7 +810,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>3.25</v>
@@ -809,7 +823,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>4.75</v>
@@ -822,7 +836,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -835,7 +849,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>18</v>
@@ -848,7 +862,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>2.85</v>
@@ -861,7 +875,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>2.5</v>
@@ -874,7 +888,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>2.75</v>
@@ -887,7 +901,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>10</v>
@@ -900,7 +914,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>9.9499999999999993</v>
@@ -913,7 +927,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
@@ -926,7 +940,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>72</v>
@@ -939,7 +953,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>3.25</v>
@@ -952,7 +966,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1">
         <v>3.25</v>
@@ -965,7 +979,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1">
         <v>2.85</v>
@@ -978,7 +992,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>2.75</v>
@@ -991,7 +1005,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
         <v>4.95</v>
@@ -1004,7 +1018,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
         <v>11</v>
@@ -1017,7 +1031,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
         <v>2.5</v>
@@ -1030,7 +1044,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <v>2.5</v>
@@ -1043,7 +1057,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -1056,7 +1070,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
         <v>2.5</v>
@@ -1069,7 +1083,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1">
         <v>23</v>
@@ -1082,7 +1096,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1">
         <v>6.9</v>
@@ -1095,7 +1109,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1">
         <v>4.5</v>
@@ -1108,7 +1122,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1">
         <v>6.9</v>
@@ -1121,7 +1135,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
         <v>4.5</v>
@@ -1134,7 +1148,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
         <v>16.5</v>
@@ -1147,7 +1161,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
         <v>13.5</v>
@@ -1160,7 +1174,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1">
         <v>16</v>
@@ -1173,7 +1187,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1">
         <v>15</v>
@@ -1186,7 +1200,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1">
         <v>29.95</v>
@@ -1199,7 +1213,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1">
         <v>24</v>
@@ -1212,7 +1226,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1">
         <v>36</v>
@@ -1225,7 +1239,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1">
         <v>20.5</v>
@@ -1238,7 +1252,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1">
         <v>13</v>
@@ -1251,7 +1265,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1">
         <v>23</v>
@@ -1264,7 +1278,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1">
         <v>32</v>
@@ -1277,7 +1291,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
         <v>32</v>
@@ -1290,7 +1304,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1">
         <v>12.99</v>
@@ -1303,7 +1317,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1">
         <v>16.5</v>
@@ -1316,7 +1330,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1">
         <v>13.85</v>
@@ -1329,7 +1343,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1">
         <v>32</v>
@@ -1342,7 +1356,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1">
         <v>25</v>
@@ -1355,7 +1369,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1">
         <v>19</v>
@@ -1368,7 +1382,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1">
         <v>56</v>
@@ -1381,7 +1395,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1">
         <v>28</v>
@@ -1394,7 +1408,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1">
         <v>57</v>
@@ -1407,7 +1421,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:G61">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>C2=MIN($C$2:$G$2)</formula>
     </cfRule>
   </conditionalFormatting>
